--- a/jacobi/src/test/resources/jacobi/test/data/RowBasedTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/RowBasedTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="19440" windowHeight="11040" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="rand3x3" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="randInt7x7" sheetId="5" r:id="rId5"/>
     <sheet name="rand3x5" sheetId="6" r:id="rId6"/>
     <sheet name="rand7x5" sheetId="7" r:id="rId7"/>
+    <sheet name="Scalar Mul 7x7" sheetId="9" r:id="rId8"/>
+    <sheet name="rand" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="5">
   <si>
     <t>#1</t>
   </si>
@@ -375,8 +377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,43 +399,43 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">RAND()</f>
-        <v>0.52425344796562034</v>
+        <v>0.7268807307825389</v>
       </c>
       <c r="B5">
         <f ca="1">RAND()</f>
-        <v>0.40094095096058746</v>
+        <v>0.95472233075022739</v>
       </c>
       <c r="C5">
         <f ca="1">RAND()</f>
-        <v>0.63898949179296904</v>
+        <v>0.20583491519619623</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:C7" ca="1" si="0">RAND()</f>
-        <v>0.5904297487416299</v>
+        <v>0.31529454387605194</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5727532689326682</v>
+        <v>0.31318314187367402</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90159319357872769</v>
+        <v>0.51461847869875943</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82453948646640651</v>
+        <v>0.6688908177852525</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87353387589916731</v>
+        <v>0.36441599522369617</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1917729406099119</v>
+        <v>0.38837853692136493</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -452,43 +454,43 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <f ca="1">RAND()</f>
-        <v>0.76239952152920532</v>
+        <v>0.86648368828006395</v>
       </c>
       <c r="B11">
         <f t="shared" ref="B11:C13" ca="1" si="1">RAND()</f>
-        <v>0.44065850333557588</v>
+        <v>0.54305203341844754</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40949029623879696</v>
+        <v>7.7302059474772533E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ref="A12:A13" ca="1" si="2">RAND()</f>
-        <v>0.73026320365445796</v>
+        <v>4.4488826956324612E-2</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53537661136882231</v>
+        <v>0.17450210411977352</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49354306014432747</v>
+        <v>0.36553029864117903</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49068808683200626</v>
+        <v>0.26135869423582991</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54152008600765011</v>
+        <v>0.68628149803332539</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8848745474769601E-2</v>
+        <v>0.41551068623819276</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -507,43 +509,43 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <f ca="1">A11+A5</f>
-        <v>1.2866529694948257</v>
+        <v>1.5933644190626028</v>
       </c>
       <c r="B17">
         <f t="shared" ref="B17:C17" ca="1" si="3">B11+B5</f>
-        <v>0.84159945429616334</v>
+        <v>1.4977743641686749</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="3"/>
-        <v>1.048479788031766</v>
+        <v>0.28313697467096877</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ref="A18:C18" ca="1" si="4">A12+A6</f>
-        <v>1.320692952396088</v>
+        <v>0.35978337083237655</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1081298803014905</v>
+        <v>0.48768524599344754</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3951362537230552</v>
+        <v>0.88014877733993846</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ref="A19:C19" ca="1" si="5">A13+A7</f>
-        <v>1.3152275732984129</v>
+        <v>0.93024951202108241</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4150539619068174</v>
+        <v>1.0506974932570214</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2606216860846815</v>
+        <v>0.80388922315955769</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,43 +564,43 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <f ca="1">A11-A5</f>
-        <v>0.23814607356358497</v>
+        <v>0.13960295749752505</v>
       </c>
       <c r="B23">
         <f t="shared" ref="B23:C23" ca="1" si="6">B11-B5</f>
-        <v>3.9717552374988419E-2</v>
+        <v>-0.41167029733177984</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.22949919555417209</v>
+        <v>-0.1285328557214237</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ref="A24:C24" ca="1" si="7">A12-A6</f>
-        <v>0.13983345491282806</v>
+        <v>-0.27080571691972732</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="7"/>
-        <v>-3.7376657563845894E-2</v>
+        <v>-0.1386810377539005</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.40805013343440022</v>
+        <v>-0.1490881800575804</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ref="A25:C25" ca="1" si="8">A13-A7</f>
-        <v>-0.33385139963440025</v>
+        <v>-0.40753212354942259</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.3320137898915172</v>
+        <v>0.32186550280962922</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.1229241951351423</v>
+        <v>2.7132149316827836E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -617,43 +619,43 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <f ca="1">A5*A11</f>
-        <v>0.39969057788902507</v>
+        <v>0.62983029654816247</v>
       </c>
       <c r="B29">
         <f t="shared" ref="B29:C29" ca="1" si="9">B5*B11</f>
-        <v>0.176678039376235</v>
+        <v>0.51846390306391066</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="9"/>
-        <v>0.26165999628778119</v>
+        <v>1.5911462856481123E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ref="A30:C30" ca="1" si="10">A6*A12</f>
-        <v>0.43116911984895934</v>
+        <v>1.4027084402774972E-2</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="10"/>
-        <v>0.30663870427158768</v>
+        <v>5.4651117231797663E-2</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="10"/>
-        <v>0.44497506376414231</v>
+        <v>0.18810864620502676</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ref="A31:C31" ca="1" si="11">A7*A13</f>
-        <v>0.40459170313164594</v>
+        <v>0.17482043072269002</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="11"/>
-        <v>0.47303613960751306</v>
+        <v>0.25009195510942334</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="11"/>
-        <v>1.3203326376999931E-2</v>
+        <v>0.16137543239638164</v>
       </c>
     </row>
   </sheetData>
@@ -687,111 +689,111 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">RAND()</f>
-        <v>0.15966644724271106</v>
+        <v>5.8067467740024914E-2</v>
       </c>
       <c r="B5">
         <f ca="1">RAND()</f>
-        <v>0.78464188291866199</v>
+        <v>0.20069768355097228</v>
       </c>
       <c r="C5">
         <f ca="1">RAND()</f>
-        <v>0.29519998522909174</v>
+        <v>4.6847944779170314E-3</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:E9" ca="1" si="0">RAND()</f>
-        <v>0.98908591383516131</v>
+        <v>0.6929236928065875</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81780433567773503</v>
+        <v>0.63771830650929762</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:C9" ca="1" si="1">RAND()</f>
-        <v>0.56636160468863272</v>
+        <v>0.47195010009826555</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65542118165501828</v>
+        <v>0.73391017015212479</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15839158562940969</v>
+        <v>0.9483234617756231</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69632735630344977</v>
+        <v>0.62589982491118423</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22910126258807173</v>
+        <v>0.23381121594923149</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94247610692471384</v>
+        <v>0.7933857853987033</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77025124390505573</v>
+        <v>0.27271998960106314</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73832817775822057</v>
+        <v>0.77275416020962651</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96034361111606792</v>
+        <v>0.80837507060005009</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15769151584475505</v>
+        <v>0.59976083729924623</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7400236683824768E-2</v>
+        <v>0.45439084201538982</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82611130557467327</v>
+        <v>0.18573748795520173</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35721423000689989</v>
+        <v>0.55942946904324187</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96427978841957196</v>
+        <v>0.67820788593746872</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26912796500221559</v>
+        <v>0.51439951489681313</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77824406967754722</v>
+        <v>0.2323182410324296</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46398771995785093</v>
+        <v>0.41552978726750311</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81985534770585933</v>
+        <v>0.6261638336296752</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6231895802705929</v>
+        <v>0.39433861716325547</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30608662474519799</v>
+        <v>0.58064351404174008</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -810,111 +812,111 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f ca="1">RAND()</f>
-        <v>0.49115097442653932</v>
+        <v>0.39734763783012506</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:E17" ca="1" si="2">RAND()</f>
-        <v>1.9612861421959282E-3</v>
+        <v>0.24995276009445722</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69836877174452083</v>
+        <v>0.45432841627235576</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78329691590276529</v>
+        <v>5.0471909702648921E-2</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4649174126602289E-2</v>
+        <v>0.51620295020608242</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ref="A14:A17" ca="1" si="3">RAND()</f>
-        <v>0.278899896029842</v>
+        <v>0.11821850720270555</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62059845958739757</v>
+        <v>6.3111038388838137E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16023747786247977</v>
+        <v>0.81095350186725335</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8631889426892968</v>
+        <v>0.32510261379848227</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78820881575249635</v>
+        <v>0.70286600150424261</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98806962386460551</v>
+        <v>0.87851942806557082</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52499173875357963</v>
+        <v>0.23339219401594635</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1463143851709372</v>
+        <v>0.97255570694274818</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58845534034386526</v>
+        <v>0.35379927431991187</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87502183300669656</v>
+        <v>0.56529409281310028</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12210326962325746</v>
+        <v>3.6521030221997264E-2</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5177238797320207E-2</v>
+        <v>0.83115184357277727</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43842852515343356</v>
+        <v>0.91994374520231981</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25544551565459006</v>
+        <v>0.85167751910668543</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3644917868421413E-2</v>
+        <v>0.5539682315014316</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69330731455922201</v>
+        <v>0.58177099129090704</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30536352453605931</v>
+        <v>0.39628283532690434</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84396880346437275</v>
+        <v>0.58494888640967768</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6390364078822057E-2</v>
+        <v>0.21948650711992101</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49481872040066366</v>
+        <v>7.3099332593075883E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -933,111 +935,111 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f ca="1">A13+A5</f>
-        <v>0.65081742166925038</v>
+        <v>0.45541510557014997</v>
       </c>
       <c r="B21">
         <f t="shared" ref="B21:E21" ca="1" si="4">B13+B5</f>
-        <v>0.78660316906085792</v>
+        <v>0.4506504436454295</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99356875697361258</v>
+        <v>0.45901321075027279</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7723828297379267</v>
+        <v>0.74339560250923642</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.85245350980433732</v>
+        <v>1.15392125671538</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ref="A22:E22" ca="1" si="5">A14+A6</f>
-        <v>0.84526150071847472</v>
+        <v>0.59016860730097109</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2760196412424158</v>
+        <v>0.79702120854096292</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31862906349188946</v>
+        <v>1.7592769636428764</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5595162989927465</v>
+        <v>0.9510024387096665</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="5"/>
-        <v>1.017310078340568</v>
+        <v>0.9366772174534741</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ref="A23:E23" ca="1" si="6">A15+A7</f>
-        <v>1.9305457307893192</v>
+        <v>1.671905213464274</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2952429826586354</v>
+        <v>0.50611218361700949</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="6"/>
-        <v>0.88464256292915777</v>
+        <v>1.7453098671523746</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5487989514599332</v>
+        <v>1.162174344919962</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0327133488514515</v>
+        <v>1.1650549301123465</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ref="A24:E24" ca="1" si="7">A16+A8</f>
-        <v>0.17950350630708223</v>
+        <v>0.49091187223738708</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="7"/>
-        <v>0.92128854437199348</v>
+        <v>1.016889331527979</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="7"/>
-        <v>0.79564275516033345</v>
+        <v>1.4793732142455616</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="7"/>
-        <v>1.219725304074162</v>
+        <v>1.5298854050441542</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="7"/>
-        <v>0.332772882870637</v>
+        <v>1.0683677463982448</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ref="A25:E25" ca="1" si="8">A17+A9</f>
-        <v>1.4715513842367693</v>
+        <v>0.81408923232333663</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="8"/>
-        <v>0.76935124449391024</v>
+        <v>0.81181262259440745</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6638241511702321</v>
+        <v>1.211112720039353</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="8"/>
-        <v>0.70957994434941496</v>
+        <v>0.61382512428317648</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="8"/>
-        <v>0.80090534514586165</v>
+        <v>0.65374284663481597</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1056,111 +1058,111 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <f ca="1">A13-A5</f>
-        <v>0.33148452718382826</v>
+        <v>0.33928017009010014</v>
       </c>
       <c r="B29">
         <f t="shared" ref="B29:E29" ca="1" si="9">B13-B5</f>
-        <v>-0.78268059677646606</v>
+        <v>4.9255076543484932E-2</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="9"/>
-        <v>0.40316878651542909</v>
+        <v>0.44964362179443873</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.20578899793239602</v>
+        <v>-0.64245178310393858</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.78315516155113274</v>
+        <v>-0.12151535630321519</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ref="A30:E30" ca="1" si="10">A14-A6</f>
-        <v>-0.28746170865879073</v>
+        <v>-0.35373159289556</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="10"/>
-        <v>-3.4822722067620715E-2</v>
+        <v>-0.67079913176328665</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8458922330700789E-3</v>
+        <v>-0.13736995990836975</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="10"/>
-        <v>0.16686158638584703</v>
+        <v>-0.30079721111270197</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="10"/>
-        <v>0.55910755316442462</v>
+        <v>0.46905478555501112</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ref="A31:E31" ca="1" si="11">A15-A7</f>
-        <v>4.5593516939891665E-2</v>
+        <v>8.5133642666867515E-2</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.2452595051514761</v>
+        <v>-3.9327795585116787E-2</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.59201379258728337</v>
+        <v>0.19980154673312167</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.37188827077220266</v>
+        <v>-0.45457579628013822</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="11"/>
-        <v>0.71733031716194151</v>
+        <v>-3.446674448614595E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ref="A32:E32" ca="1" si="12">A16-A8</f>
-        <v>6.4703032939432692E-2</v>
+        <v>-0.41786981179339255</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.73093406677735306</v>
+        <v>0.64541435561757554</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="12"/>
-        <v>8.1214295146533666E-2</v>
+        <v>0.36051427615907794</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.7088342727649819</v>
+        <v>0.17346963316921671</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.20548304713379417</v>
+        <v>3.956871660461847E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ref="A33:E33" ca="1" si="13">A17-A9</f>
-        <v>-8.4936755118325213E-2</v>
+        <v>0.34945275025847744</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="13"/>
-        <v>-0.15862419542179163</v>
+        <v>-1.9246951940598778E-2</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="13"/>
-        <v>2.4113455758513425E-2</v>
+        <v>-4.1214947219997522E-2</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="13"/>
-        <v>-0.53679921619177084</v>
+        <v>-0.17485211004333445</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="13"/>
-        <v>0.18873209565546567</v>
+        <v>-0.5075441814486642</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1179,111 +1181,111 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <f ca="1">A5*A13</f>
-        <v>7.842033114648117E-2</v>
+        <v>2.3072971141275891E-2</v>
       </c>
       <c r="B37">
         <f t="shared" ref="B37:E37" ca="1" si="14">B5*B13</f>
-        <v>1.5389072515548917E-3</v>
+        <v>5.0164939948129469E-2</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="14"/>
-        <v>0.2061584511034415</v>
+        <v>2.1284352557135225E-3</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="14"/>
-        <v>0.77474794586995011</v>
+        <v>3.4973182054160126E-2</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="14"/>
-        <v>2.833624482838815E-2</v>
+        <v>0.32919207122052618</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ref="A38:E38" ca="1" si="15">A6*A14</f>
-        <v>0.15795819266295413</v>
+        <v>5.5793236307784412E-2</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="15"/>
-        <v>0.40675337571605624</v>
+        <v>4.6317832922429476E-2</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="15"/>
-        <v>2.5380268195895606E-2</v>
+        <v>0.76904623222981794</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="15"/>
-        <v>0.60106207445320803</v>
+        <v>0.20348166905463841</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="15"/>
-        <v>0.18057963487194573</v>
+        <v>0.16433795446108132</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ref="A39:E39" ca="1" si="16">A7*A15</f>
-        <v>0.93123201247047971</v>
+        <v>0.69700482642382255</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="16"/>
-        <v>0.40437553981482277</v>
+        <v>6.3650716724998196E-2</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="16"/>
-        <v>0.10802803338307247</v>
+        <v>0.75154646857562302</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="16"/>
-        <v>0.56511932652636232</v>
+        <v>0.28600251335660526</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="16"/>
-        <v>0.13798351924408209</v>
+        <v>0.33904125842590283</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ref="A40:E40" ca="1" si="17">A8*A16</f>
-        <v>7.0087565762438492E-3</v>
+        <v>1.6594821673842835E-2</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="17"/>
-        <v>7.8626993003846637E-2</v>
+        <v>0.15437605553454242</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="17"/>
-        <v>0.15661290802574451</v>
+        <v>0.51464364092818515</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="17"/>
-        <v>0.24632094778813657</v>
+        <v>0.57761440973381328</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="17"/>
-        <v>1.7128627228661403E-2</v>
+        <v>0.28496098955258187</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ref="A41:E41" ca="1" si="18">A9*A17</f>
-        <v>0.53956230601978028</v>
+        <v>0.13515601338039643</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="18"/>
-        <v>0.14168492550777942</v>
+        <v>0.16466732226115152</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="18"/>
-        <v>0.69193233681718136</v>
+        <v>0.36627383719169321</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="18"/>
-        <v>5.3837574729704823E-2</v>
+        <v>8.6552005703662685E-2</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="18"/>
-        <v>0.15145739198817698</v>
+        <v>4.2444653350949484E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1317,211 +1319,211 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">RAND()</f>
-        <v>0.74766929026714213</v>
+        <v>0.5604629668679979</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:G11" ca="1" si="0">RAND()</f>
-        <v>0.73061669299495757</v>
+        <v>0.66555497090496663</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80820906917133428</v>
+        <v>0.11919730009305074</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52088325721749362</v>
+        <v>0.50194643741411582</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12604920544559128</v>
+        <v>0.67365899395590245</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30377970163219326</v>
+        <v>0.29035885397214534</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62384912909603851</v>
+        <v>0.68321182019397964</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:A11" ca="1" si="1">RAND()</f>
-        <v>0.17758658797207882</v>
+        <v>0.85810906198400427</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68041623123054584</v>
+        <v>0.90696555532161094</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70029346408705884</v>
+        <v>0.7846252930688179</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85930192145058282</v>
+        <v>0.50347634273581465</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8797176850412276E-2</v>
+        <v>0.62413881910126168</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78523865360342326</v>
+        <v>0.4202410598636469</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8416497882566718</v>
+        <v>0.45401482928939807</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19639711011014027</v>
+        <v>0.98650275755110806</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1883324447729452</v>
+        <v>0.94816300596644476</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67769054013419339</v>
+        <v>0.58143756430221549</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1552649487038904</v>
+        <v>0.45640958485795968</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66238170354828785</v>
+        <v>0.38476723677571834</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7446808754793928E-2</v>
+        <v>0.43276256936734614</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14130801510253577</v>
+        <v>0.79052048369089145</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98934131510914991</v>
+        <v>3.8878598550537879E-2</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68632589629342622</v>
+        <v>0.11775675307989941</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48255800652274838</v>
+        <v>8.4310099140972095E-2</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89805567218347604</v>
+        <v>0.63152900554298141</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59704719734572398</v>
+        <v>0.90766120451909837</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3635999385173585</v>
+        <v>0.17082364596070154</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1191087027698665E-2</v>
+        <v>5.9920632055631473E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44527357199700224</v>
+        <v>0.29340018839950055</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12877965255779245</v>
+        <v>0.55271555376592885</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94788196864527552</v>
+        <v>0.54639188533027183</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16934910685237736</v>
+        <v>0.83637115549968388</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13847151719857564</v>
+        <v>0.12698405211478925</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70168470973548969</v>
+        <v>0.749229498186882</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86327550817507503</v>
+        <v>0.62777129343450455</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46407558205496846</v>
+        <v>5.463180051075367E-2</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9081650992647359E-2</v>
+        <v>0.79631886273955976</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66229747002323602</v>
+        <v>0.70573947901437961</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88579355359223821</v>
+        <v>0.49627202829775718</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50985344945691324</v>
+        <v>0.19807188067145753</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66438427730459093</v>
+        <v>0.53079300911169436</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84172718918625034</v>
+        <v>0.22482566063746268</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56057928504356969</v>
+        <v>0.44742208255513449</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8045111086429948E-2</v>
+        <v>0.15699267491923641</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81643787795930456</v>
+        <v>0.21115148716619725</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26091189664365488</v>
+        <v>0.85096999642971949</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62334842699730342</v>
+        <v>0.46120386073615427</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66613427243755907</v>
+        <v>0.20936463651787807</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12093767270548428</v>
+        <v>8.7610778922655896E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1540,211 +1542,211 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f ca="1">RAND()</f>
-        <v>0.72384676557137251</v>
+        <v>0.78940923120642015</v>
       </c>
       <c r="B15">
         <f t="shared" ref="B15:G21" ca="1" si="2">RAND()</f>
-        <v>9.466940638684429E-2</v>
+        <v>0.38699419777862154</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27587658611191057</v>
+        <v>0.61074345900184457</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80345522618265619</v>
+        <v>0.95176038935134932</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1407753712620168E-2</v>
+        <v>0.57870158203918665</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40825193025387652</v>
+        <v>0.71066262669244318</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66423493342500484</v>
+        <v>0.40220870784972029</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ref="A16:A21" ca="1" si="3">RAND()</f>
-        <v>6.2437242593089581E-2</v>
+        <v>0.11350633333938498</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83927933415801959</v>
+        <v>0.11468881469171865</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13515211915083403</v>
+        <v>0.76741509920169382</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7961935413310091E-2</v>
+        <v>0.44019840129968046</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62007492174368861</v>
+        <v>0.37669854567945615</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20723301753819912</v>
+        <v>0.5699699372456275</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92808812387138717</v>
+        <v>0.57926653921178894</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71260860656163894</v>
+        <v>0.95593297710726</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99799588926045668</v>
+        <v>0.59183363831600677</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75816522953643994</v>
+        <v>0.42015752699455966</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55087356873671967</v>
+        <v>0.73885996427142353</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35678806881625502</v>
+        <v>0.868003038520621</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55739029069734125</v>
+        <v>0.3506333753459081</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91338649429738783</v>
+        <v>0.70809835922899189</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37347817215413592</v>
+        <v>0.62906485849378169</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83100155182866731</v>
+        <v>0.24483245985866997</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61506024282121874</v>
+        <v>0.40295669945940993</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82156309423164997</v>
+        <v>0.21140009223780432</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28716453230933192</v>
+        <v>0.25784972527534245</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8210659789308061E-2</v>
+        <v>6.8804861544192519E-2</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36572700493462718</v>
+        <v>0.5582312907811221</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70821685700086467</v>
+        <v>4.3556329926308313E-2</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52445125197786291</v>
+        <v>0.43623961477813722</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82849218955519699</v>
+        <v>7.086592056729657E-2</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87786527787011159</v>
+        <v>0.41109919541741258</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2618012500365352</v>
+        <v>0.1502629255961021</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85828957253065663</v>
+        <v>0.75720563414852882</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60049855768696647</v>
+        <v>0.92266575430768927</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51068374603531907</v>
+        <v>0.71700154642824199</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57639926276355091</v>
+        <v>2.2546009252080057E-2</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11122196929878625</v>
+        <v>0.45783648930995169</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27396706607810062</v>
+        <v>0.61671760912503926</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71256137169066891</v>
+        <v>0.85706014612588366</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47787248286517792</v>
+        <v>0.2311744081379955</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32078684999080931</v>
+        <v>0.64237063518384774</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34052837436341798</v>
+        <v>0.98193050436664153</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>6.6809947855956842E-2</v>
+        <v>0.25437444783208985</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77377254661332484</v>
+        <v>6.9657742767911257E-2</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9235085041575597</v>
+        <v>0.35056524815402657</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5964250440538859E-3</v>
+        <v>0.93297562210155094</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48794519041794038</v>
+        <v>0.2284529291931332</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15262844470215065</v>
+        <v>0.36112918148225592</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1763,211 +1765,211 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f ca="1">A15+A5</f>
-        <v>1.4715160558385145</v>
+        <v>1.3498721980744182</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:G25" ca="1" si="4">B15+B5</f>
-        <v>0.82528609938180186</v>
+        <v>1.0525491686835882</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="4"/>
-        <v>1.084085655283245</v>
+        <v>0.72994075909489531</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3243384834001497</v>
+        <v>1.4537068267654651</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15745695915821145</v>
+        <v>1.2523605759950891</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71203163188606977</v>
+        <v>1.0010214806645885</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2880840625210435</v>
+        <v>1.0854205280436999</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ref="A26:G26" ca="1" si="5">A16+A6</f>
-        <v>0.24002383056516841</v>
+        <v>0.97161539532338925</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5196955653885653</v>
+        <v>1.0216543700133296</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83544558323789286</v>
+        <v>1.5520403922705117</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93726385686389291</v>
+        <v>0.94367474403549512</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64887209859410089</v>
+        <v>1.0008373647807178</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99247167114162238</v>
+        <v>0.9902109971092744</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="5"/>
-        <v>1.769737912128059</v>
+        <v>1.033281368501187</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ref="A27:G27" ca="1" si="6">A17+A7</f>
-        <v>0.90900571667177921</v>
+        <v>1.9424357346583681</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1863283340334019</v>
+        <v>1.5399966442824515</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4358557696706333</v>
+        <v>1.001595091296775</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="6"/>
-        <v>0.70613851744061007</v>
+        <v>1.1952695491293832</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0191697723645428</v>
+        <v>1.2527702752963394</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="6"/>
-        <v>0.63483709945213518</v>
+        <v>0.78339594471325424</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0546945093999236</v>
+        <v>1.4986188429198832</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ref="A28:G28" ca="1" si="7">A18+A8</f>
-        <v>1.3628194872632857</v>
+        <v>0.66794345704431957</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="7"/>
-        <v>1.5173274481220935</v>
+        <v>0.36258921293856938</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="7"/>
-        <v>1.097618249343967</v>
+        <v>0.48726679860038202</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="7"/>
-        <v>1.7196187664151261</v>
+        <v>0.84292909778078573</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="7"/>
-        <v>0.8842117296550559</v>
+        <v>1.1655109297944408</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="7"/>
-        <v>0.42181059830666656</v>
+        <v>0.23962850750489406</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="7"/>
-        <v>0.37691809196232584</v>
+        <v>0.61815192283675358</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ref="A29:G29" ca="1" si="8">A19+A9</f>
-        <v>1.1534904289978669</v>
+        <v>0.33695651832580886</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="8"/>
-        <v>0.65323090453565535</v>
+        <v>0.98895516854406607</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="8"/>
-        <v>1.7763741582004724</v>
+        <v>0.6172578058975684</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0472143847224888</v>
+        <v>1.2474703509170966</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="8"/>
-        <v>0.40027276723511085</v>
+        <v>0.27724697771089135</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5599742822661464</v>
+        <v>1.5064351323354108</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="8"/>
-        <v>1.4637740658620415</v>
+        <v>1.5504370477421938</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ref="A30:G30" ca="1" si="9">A20+A10</f>
-        <v>0.97475932809028754</v>
+        <v>0.77163334693899566</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="9"/>
-        <v>0.59548091375619827</v>
+        <v>0.81886487199163982</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="9"/>
-        <v>0.77351943932202227</v>
+        <v>1.1635759683243312</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1597606196703389</v>
+        <v>1.1129896374227966</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="9"/>
-        <v>1.222414821147582</v>
+        <v>1.0551320267973412</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1422567601697688</v>
+        <v>0.76196741724968986</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1625140391770596</v>
+        <v>0.86719629582131041</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ref="A31:G31" ca="1" si="10">A21+A11</f>
-        <v>0.90110765940698767</v>
+        <v>1.429352586921776</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="10"/>
-        <v>0.11485505894238679</v>
+        <v>0.41136712275132625</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="10"/>
-        <v>1.5902104245726294</v>
+        <v>0.28080922993410851</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1844204008012147</v>
+        <v>1.2015352445837459</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6269448520413573</v>
+        <v>1.3941794828377052</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1540794628554996</v>
+        <v>0.43781756571101127</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="10"/>
-        <v>0.27356611740763492</v>
+        <v>0.44873996040491182</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1986,211 +1988,211 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f ca="1">A15-A5</f>
-        <v>-2.382252469576962E-2</v>
+        <v>0.22894626433842225</v>
       </c>
       <c r="B35">
         <f t="shared" ref="B35:G35" ca="1" si="11">B15-B5</f>
-        <v>-0.63594728660811328</v>
+        <v>-0.27856077312634508</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.53233248305942371</v>
+        <v>0.49154615890879383</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28257196896516257</v>
+        <v>0.4498139519372335</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="11"/>
-        <v>-9.4641451732971116E-2</v>
+        <v>-9.4957411916715806E-2</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="11"/>
-        <v>0.10447222862168326</v>
+        <v>0.42030377272029784</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="11"/>
-        <v>4.0385804328966324E-2</v>
+        <v>-0.28100311234425934</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ref="A36:G36" ca="1" si="12">A16-A6</f>
-        <v>-0.11514934537898924</v>
+        <v>-0.74460272864461929</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="12"/>
-        <v>0.15886310292747374</v>
+        <v>-0.79227674062989228</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.56514134493622481</v>
+        <v>-1.721019386712408E-2</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.78133998603727273</v>
+        <v>-6.3277941436134189E-2</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="12"/>
-        <v>0.59127774489327634</v>
+        <v>-0.24744027342180552</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.57800563606522415</v>
+        <v>0.1497288773819806</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="12"/>
-        <v>8.6438335614715367E-2</v>
+        <v>0.12525170992239087</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ref="A37:G37" ca="1" si="13">A17-A7</f>
-        <v>0.51621149645149866</v>
+        <v>-3.056978044384806E-2</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="13"/>
-        <v>0.80966344448751149</v>
+        <v>-0.35632936765043799</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="13"/>
-        <v>8.0474689402246558E-2</v>
+        <v>-0.16128003730765583</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="13"/>
-        <v>0.39560862003282926</v>
+        <v>0.28245037941346385</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="13"/>
-        <v>-0.30559363473203283</v>
+        <v>0.48323580174490266</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="13"/>
-        <v>0.47994348194254732</v>
+        <v>-8.2129194021438034E-2</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="13"/>
-        <v>0.77207847919485206</v>
+        <v>-8.242212446189956E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ref="A38:G38" ca="1" si="14">A18-A8</f>
-        <v>-0.61586314295501399</v>
+        <v>0.59018625994324381</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="14"/>
-        <v>0.14467565553524109</v>
+        <v>0.12707570677877056</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="14"/>
-        <v>0.13250223629847036</v>
+        <v>0.31864660031843783</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="14"/>
-        <v>-7.6492577951826068E-2</v>
+        <v>-0.4201289133051771</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.30988266503639206</v>
+        <v>-0.64981147924375593</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.30538927872805044</v>
+        <v>-0.10201878441650902</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="14"/>
-        <v>0.35453591790692851</v>
+        <v>0.49831065872549063</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ref="A39:G39" ca="1" si="15">A19-A9</f>
-        <v>0.26294328500386244</v>
+        <v>-0.24984385847319224</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="15"/>
-        <v>0.39567159942007046</v>
+        <v>-0.11647593898779163</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.11938977909007853</v>
+        <v>-0.47552596476297526</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="15"/>
-        <v>0.70851617101773423</v>
+        <v>-0.42527196008227131</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="15"/>
-        <v>0.12332973283795956</v>
+        <v>2.3278873481312856E-2</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="15"/>
-        <v>0.15660486279516694</v>
+        <v>7.976135961646813E-3</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.26277695048810856</v>
+        <v>0.29489446087318472</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ref="A40:G40" ca="1" si="16">A20-A10</f>
-        <v>4.6608163980350614E-2</v>
+        <v>0.66236974591748832</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="16"/>
-        <v>0.55731761177090355</v>
+        <v>-0.77377285348747971</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="16"/>
-        <v>-0.55107550072444977</v>
+        <v>-0.24790298970442792</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="16"/>
-        <v>-0.6118264875141376</v>
+        <v>0.12044558082728207</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="16"/>
-        <v>0.20270792223375567</v>
+        <v>0.65898826545442613</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="16"/>
-        <v>-0.18651179443941301</v>
+        <v>-0.29961860097369886</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="16"/>
-        <v>-0.52094033919544103</v>
+        <v>0.41754497454638506</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ref="A41:G41" ca="1" si="17">A21-A11</f>
-        <v>-0.2200509106801517</v>
+        <v>0.53450842181150704</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="17"/>
-        <v>1.8764836769526894E-2</v>
+        <v>9.7381772912853437E-2</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="17"/>
-        <v>-4.2665331345979718E-2</v>
+        <v>-0.14149374439828599</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="17"/>
-        <v>0.66259660751390481</v>
+        <v>-0.50040474827569292</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.61975200195324953</v>
+        <v>0.47177176136539667</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.17818908201961869</v>
+        <v>1.9088292675255136E-2</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="17"/>
-        <v>3.1690771996666367E-2</v>
+        <v>0.27351840255960003</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2209,211 +2211,211 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f ca="1">A5*A15</f>
-        <v>0.54119799747691444</v>
+        <v>0.44243463979493552</v>
       </c>
       <c r="B45">
         <f t="shared" ref="B45:G45" ca="1" si="18">B5*B15</f>
-        <v>6.9167048622151894E-2</v>
+        <v>0.25756591204294138</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="18"/>
-        <v>0.22296595886767268</v>
+        <v>7.2798971362510692E-2</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="18"/>
-        <v>0.41850637524244</v>
+        <v>0.47773273670678157</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="18"/>
-        <v>3.9589224003065918E-3</v>
+        <v>0.38984752555720764</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="18"/>
-        <v>0.12401864956328958</v>
+        <v>0.20634718584725234</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="18"/>
-        <v>0.41438238473235439</v>
+        <v>0.27479374338787599</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ref="A46:G46" ca="1" si="19">A6*A16</f>
-        <v>1.108801687449173E-2</v>
+        <v>9.7400813231103361E-2</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="19"/>
-        <v>0.57105928149748164</v>
+        <v>0.10401880450605194</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="19"/>
-        <v>9.4646145698844483E-2</v>
+        <v>0.60213329711656494</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="19"/>
-        <v>6.6992840900663597E-2</v>
+        <v>0.22162948116451561</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="19"/>
-        <v>1.7856407181958554E-2</v>
+        <v>0.23511218545753845</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="19"/>
-        <v>0.16272737567387008</v>
+        <v>0.23952477051851881</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="19"/>
-        <v>0.78112517293988482</v>
+        <v>0.26299559891330077</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ref="A47:G47" ca="1" si="20">A7*A17</f>
-        <v>0.13995427096831983</v>
+        <v>0.9430305179503522</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="20"/>
-        <v>0.18795500569777129</v>
+        <v>0.56115476153776267</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="20"/>
-        <v>0.51380140391551465</v>
+        <v>0.24429536911895913</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="20"/>
-        <v>8.553135639223583E-2</v>
+        <v>0.33722276956128733</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="20"/>
-        <v>0.23632988882821476</v>
+        <v>0.33397913064450674</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="20"/>
-        <v>4.3168099245415981E-2</v>
+        <v>0.15174100042064026</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="20"/>
-        <v>0.12906883253062748</v>
+        <v>0.55976625743842923</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" ref="A48:G48" ca="1" si="21">A8*A18</f>
-        <v>0.36949738600353432</v>
+        <v>2.4457160095630658E-2</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="21"/>
-        <v>0.57033788488003812</v>
+        <v>2.8830675521521784E-2</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="21"/>
-        <v>0.2968022446672049</v>
+        <v>3.3973319280941751E-2</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="21"/>
-        <v>0.73780939683134084</v>
+        <v>0.13350529002263511</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="21"/>
-        <v>0.17145077919238222</v>
+        <v>0.23404019222833594</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="21"/>
-        <v>2.1165392320447285E-2</v>
+        <v>1.1753497308800232E-2</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="21"/>
-        <v>4.0928827406029921E-3</v>
+        <v>3.3449571776835836E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ref="A49:G49" ca="1" si="22">A9*A19</f>
-        <v>0.31535024966526515</v>
+        <v>1.2779435406369662E-2</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="22"/>
-        <v>6.753865001320844E-2</v>
+        <v>0.24111642025673358</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="22"/>
-        <v>0.78531280764281486</v>
+        <v>3.8720563944430457E-2</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="22"/>
-        <v>0.14866570074401747</v>
+        <v>0.34383150909625171</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="22"/>
-        <v>3.6252016297042687E-2</v>
+        <v>1.908099517481613E-2</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="22"/>
-        <v>0.60224866957017131</v>
+        <v>0.56732079729738205</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="22"/>
-        <v>0.51839569754561554</v>
+        <v>0.57922307398946093</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ref="A50:G50" ca="1" si="23">A10*A20</f>
-        <v>0.2369958566873524</v>
+        <v>3.9171085450369604E-2</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="23"/>
-        <v>1.0998649564473316E-2</v>
+        <v>1.7953812446931984E-2</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="23"/>
-        <v>7.3662028877588159E-2</v>
+        <v>0.3231132854393779</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="23"/>
-        <v>0.2426782610285603</v>
+        <v>0.30605969876742661</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="23"/>
-        <v>0.36330187330623726</v>
+        <v>0.16975951499170799</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="23"/>
-        <v>0.31749096417213174</v>
+        <v>0.12270575972518159</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="23"/>
-        <v>0.27001501357067526</v>
+        <v>0.14442140242931509</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" ref="A51:G51" ca="1" si="24">A11*A21</f>
-        <v>0.19089315263769391</v>
+        <v>0.43933739118813636</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="24"/>
-        <v>3.2098913664180386E-3</v>
+        <v>3.9934924996263541E-2</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="24"/>
-        <v>0.63173721598014998</v>
+        <v>1.4708335978084883E-2</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="24"/>
-        <v>0.24095435538629353</v>
+        <v>0.29832050797001569</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="24"/>
-        <v>2.2418258940246974E-3</v>
+        <v>0.43029195888595057</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="24"/>
-        <v>0.32503701440846094</v>
+        <v>4.7829964481964866E-2</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="24"/>
-        <v>1.8458528890935799E-2</v>
+        <v>3.1638808881361606E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2447,15 +2449,15 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">FLOOR(RANDBETWEEN(0, 255), 1)</f>
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:E9" ca="1" si="0">FLOOR(RANDBETWEEN(0, 255), 1)</f>
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
@@ -2463,95 +2465,95 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:A9" ca="1" si="1">FLOOR(RANDBETWEEN(0, 255), 1)</f>
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>241</v>
+        <v>137</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>252</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2570,111 +2572,111 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f ca="1">FLOOR(RANDBETWEEN(0, 255), 1)</f>
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:E17" ca="1" si="2">FLOOR(RANDBETWEEN(0, 255), 1)</f>
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ref="A14:A17" ca="1" si="3">FLOOR(RANDBETWEEN(0, 255), 1)</f>
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="2"/>
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="3"/>
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>152</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="3"/>
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>247</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2693,111 +2695,111 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f ca="1">A5+A13</f>
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="B21">
         <f t="shared" ref="B21:E21" ca="1" si="4">B5+B13</f>
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="4"/>
-        <v>225</v>
+        <v>329</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="4"/>
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="4"/>
-        <v>283</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ref="A22:E22" ca="1" si="5">A6+A14</f>
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="5"/>
-        <v>443</v>
+        <v>181</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="5"/>
-        <v>381</v>
+        <v>193</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="5"/>
-        <v>162</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ref="A23:E23" ca="1" si="6">A7+A15</f>
-        <v>40</v>
+        <v>366</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="6"/>
-        <v>277</v>
+        <v>85</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="6"/>
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="6"/>
-        <v>209</v>
+        <v>402</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="6"/>
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ref="A24:E24" ca="1" si="7">A8+A16</f>
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="7"/>
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="7"/>
-        <v>307</v>
+        <v>178</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="7"/>
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="7"/>
-        <v>159</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ref="A25:E25" ca="1" si="8">A9+A17</f>
-        <v>241</v>
+        <v>337</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="8"/>
-        <v>212</v>
+        <v>493</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="8"/>
-        <v>265</v>
+        <v>175</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>334</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="8"/>
-        <v>273</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2816,111 +2818,111 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <f ca="1">A13-A5</f>
-        <v>220</v>
+        <v>-230</v>
       </c>
       <c r="B29">
         <f t="shared" ref="B29:E29" ca="1" si="9">B13-B5</f>
-        <v>-59</v>
+        <v>-68</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="9"/>
-        <v>-221</v>
+        <v>-133</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="9"/>
-        <v>-91</v>
+        <v>-94</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="9"/>
-        <v>-57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ref="A30:E30" ca="1" si="10">A14-A6</f>
-        <v>-65</v>
+        <v>-91</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="10"/>
-        <v>-86</v>
+        <v>65</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="10"/>
-        <v>-116</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ref="A31:E31" ca="1" si="11">A15-A7</f>
-        <v>14</v>
+        <v>-142</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="11"/>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="11"/>
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="11"/>
-        <v>-91</v>
+        <v>-62</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="11"/>
-        <v>76</v>
+        <v>-134</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ref="A32:E32" ca="1" si="12">A16-A8</f>
-        <v>194</v>
+        <v>-176</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="12"/>
-        <v>-139</v>
+        <v>111</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>-130</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="12"/>
-        <v>-174</v>
+        <v>-168</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="12"/>
-        <v>145</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ref="A33:E33" ca="1" si="13">A17-A9</f>
-        <v>109</v>
+        <v>-115</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="13"/>
-        <v>-20</v>
+        <v>-11</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="13"/>
-        <v>91</v>
+        <v>-131</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="13"/>
-        <v>-8</v>
+        <v>-88</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="13"/>
-        <v>221</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2939,111 +2941,111 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <f ca="1">A5*A13</f>
-        <v>7221</v>
+        <v>1416</v>
       </c>
       <c r="B37">
         <f t="shared" ref="B37:E37" ca="1" si="14">B5*B13</f>
-        <v>27186</v>
+        <v>34565</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="14"/>
-        <v>446</v>
+        <v>22638</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="14"/>
-        <v>16290</v>
+        <v>15747</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="14"/>
-        <v>19210</v>
+        <v>9729</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ref="A38:E38" ca="1" si="15">A6*A14</f>
-        <v>27336</v>
+        <v>20280</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="15"/>
-        <v>48006</v>
+        <v>8134</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="15"/>
-        <v>36200</v>
+        <v>9270</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="15"/>
-        <v>267</v>
+        <v>6600</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="15"/>
-        <v>3197</v>
+        <v>21816</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ref="A39:E39" ca="1" si="16">A7*A15</f>
-        <v>351</v>
+        <v>28448</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="16"/>
-        <v>19000</v>
+        <v>1734</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="16"/>
-        <v>14798</v>
+        <v>16709</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="16"/>
-        <v>8850</v>
+        <v>39440</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="16"/>
-        <v>24800</v>
+        <v>19227</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ref="A40:E40" ca="1" si="17">A8*A16</f>
-        <v>5967</v>
+        <v>14457</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="17"/>
-        <v>24582</v>
+        <v>33976</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="17"/>
-        <v>23550</v>
+        <v>3696</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="17"/>
-        <v>16456</v>
+        <v>12825</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="17"/>
-        <v>1064</v>
+        <v>9991</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ref="A41:E41" ca="1" si="18">A9*A17</f>
-        <v>11550</v>
+        <v>25086</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="18"/>
-        <v>11136</v>
+        <v>60732</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="18"/>
-        <v>15486</v>
+        <v>3366</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="18"/>
-        <v>945</v>
+        <v>25953</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="18"/>
-        <v>6422</v>
+        <v>6705</v>
       </c>
     </row>
   </sheetData>
@@ -3077,211 +3079,211 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">FLOOR(RANDBETWEEN(0, 255), 1)</f>
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:G11" ca="1" si="0">FLOOR(RANDBETWEEN(0, 255), 1)</f>
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:A11" ca="1" si="1">FLOOR(RANDBETWEEN(0, 255), 1)</f>
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>193</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>247</v>
+        <v>101</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>153</v>
+        <v>245</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>248</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3300,211 +3302,211 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f ca="1">FLOOR(RANDBETWEEN(0, 255), 1)</f>
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <f t="shared" ref="B15:G21" ca="1" si="2">FLOOR(RANDBETWEEN(0, 255), 1)</f>
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>243</v>
+        <v>111</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ref="A16:A21" ca="1" si="3">FLOOR(RANDBETWEEN(0, 255), 1)</f>
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>201</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="3"/>
-        <v>249</v>
+        <v>71</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="3"/>
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="3"/>
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3523,211 +3525,211 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f ca="1">A15+A5</f>
-        <v>273</v>
+        <v>82</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:G25" ca="1" si="4">B15+B5</f>
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="4"/>
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="4"/>
-        <v>387</v>
+        <v>209</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="4"/>
-        <v>391</v>
+        <v>127</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="4"/>
-        <v>276</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ref="A26:G26" ca="1" si="5">A16+A6</f>
-        <v>174</v>
+        <v>342</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="5"/>
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="5"/>
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="5"/>
-        <v>367</v>
+        <v>284</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="5"/>
-        <v>377</v>
+        <v>196</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="5"/>
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="5"/>
-        <v>394</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ref="A27:G27" ca="1" si="6">A17+A7</f>
-        <v>277</v>
+        <v>175</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="6"/>
-        <v>234</v>
+        <v>336</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="6"/>
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="6"/>
-        <v>265</v>
+        <v>115</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="6"/>
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="6"/>
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="6"/>
-        <v>161</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ref="A28:G28" ca="1" si="7">A18+A8</f>
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="7"/>
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="7"/>
-        <v>256</v>
+        <v>328</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="7"/>
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="7"/>
-        <v>384</v>
+        <v>95</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ref="A29:G29" ca="1" si="8">A19+A9</f>
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="8"/>
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="8"/>
-        <v>352</v>
+        <v>91</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="8"/>
-        <v>253</v>
+        <v>127</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="8"/>
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="8"/>
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="8"/>
-        <v>225</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ref="A30:G30" ca="1" si="9">A20+A10</f>
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="9"/>
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="9"/>
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="9"/>
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="9"/>
-        <v>169</v>
+        <v>383</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="9"/>
-        <v>150</v>
+        <v>491</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="9"/>
-        <v>457</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ref="A31:G31" ca="1" si="10">A21+A11</f>
-        <v>359</v>
+        <v>286</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="10"/>
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="10"/>
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="10"/>
-        <v>175</v>
+        <v>337</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="10"/>
-        <v>210</v>
+        <v>284</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="10"/>
-        <v>409</v>
+        <v>201</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3746,211 +3748,211 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f ca="1">A15-A5</f>
-        <v>-73</v>
+        <v>66</v>
       </c>
       <c r="B35">
         <f t="shared" ref="B35:G35" ca="1" si="11">B15-B5</f>
-        <v>136</v>
+        <v>-158</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="11"/>
-        <v>-116</v>
+        <v>-22</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="11"/>
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="11"/>
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="11"/>
-        <v>97</v>
+        <v>-91</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="11"/>
-        <v>-66</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ref="A36:G36" ca="1" si="12">A16-A6</f>
-        <v>-64</v>
+        <v>-94</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="12"/>
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="12"/>
-        <v>-96</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="12"/>
-        <v>-29</v>
+        <v>-80</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="12"/>
-        <v>-85</v>
+        <v>152</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="12"/>
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ref="A37:G37" ca="1" si="13">A17-A7</f>
-        <v>221</v>
+        <v>-33</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="13"/>
-        <v>-126</v>
+        <v>-112</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="13"/>
-        <v>-48</v>
+        <v>177</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="13"/>
-        <v>-11</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="13"/>
-        <v>-68</v>
+        <v>-109</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="13"/>
-        <v>-227</v>
+        <v>6</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="13"/>
-        <v>-5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ref="A38:G38" ca="1" si="14">A18-A8</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="14"/>
-        <v>206</v>
+        <v>-63</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="14"/>
-        <v>-238</v>
+        <v>126</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="14"/>
-        <v>-30</v>
+        <v>-104</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="14"/>
-        <v>-124</v>
+        <v>55</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="14"/>
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="14"/>
-        <v>-6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ref="A39:G39" ca="1" si="15">A19-A9</f>
-        <v>-117</v>
+        <v>114</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="15"/>
-        <v>-138</v>
+        <v>-218</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>-73</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="15"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="15"/>
-        <v>-24</v>
+        <v>-59</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="15"/>
-        <v>-81</v>
+        <v>128</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="15"/>
-        <v>27</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ref="A40:G40" ca="1" si="16">A20-A10</f>
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="16"/>
-        <v>-83</v>
+        <v>-20</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="16"/>
-        <v>-163</v>
+        <v>-166</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="16"/>
-        <v>-168</v>
+        <v>51</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="16"/>
-        <v>-163</v>
+        <v>-27</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="16"/>
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="16"/>
-        <v>-39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ref="A41:G41" ca="1" si="17">A21-A11</f>
-        <v>-1</v>
+        <v>-190</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="17"/>
-        <v>-20</v>
+        <v>-59</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="17"/>
-        <v>-145</v>
+        <v>-150</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="17"/>
-        <v>-47</v>
+        <v>159</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="17"/>
-        <v>-176</v>
+        <v>-120</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="17"/>
-        <v>-49</v>
+        <v>175</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="17"/>
-        <v>44</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3969,211 +3971,211 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f ca="1">A5*A15</f>
-        <v>17300</v>
+        <v>592</v>
       </c>
       <c r="B45">
         <f t="shared" ref="B45:G45" ca="1" si="18">B5*B15</f>
-        <v>1152</v>
+        <v>2595</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="18"/>
-        <v>4032</v>
+        <v>12648</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="18"/>
-        <v>34992</v>
+        <v>10878</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="18"/>
-        <v>1826</v>
+        <v>3955</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="18"/>
-        <v>35868</v>
+        <v>1962</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="18"/>
-        <v>17955</v>
+        <v>20056</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ref="A46:G46" ca="1" si="19">A6*A16</f>
-        <v>6545</v>
+        <v>27032</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="19"/>
-        <v>25800</v>
+        <v>23114</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="19"/>
-        <v>4420</v>
+        <v>3712</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="19"/>
-        <v>33462</v>
+        <v>18564</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="19"/>
-        <v>33726</v>
+        <v>3828</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="19"/>
-        <v>12960</v>
+        <v>10502</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="19"/>
-        <v>38793</v>
+        <v>17168</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ref="A47:G47" ca="1" si="20">A7*A17</f>
-        <v>6972</v>
+        <v>7384</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="20"/>
-        <v>9720</v>
+        <v>25088</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="20"/>
-        <v>25024</v>
+        <v>6930</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="20"/>
-        <v>17526</v>
+        <v>3150</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="20"/>
-        <v>21045</v>
+        <v>12036</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="20"/>
-        <v>2124</v>
+        <v>7387</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="20"/>
-        <v>6474</v>
+        <v>48672</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" ref="A48:G48" ca="1" si="21">A8*A18</f>
-        <v>3024</v>
+        <v>6045</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="21"/>
-        <v>8712</v>
+        <v>17640</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="21"/>
-        <v>2223</v>
+        <v>22927</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="21"/>
-        <v>39775</v>
+        <v>27921</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="21"/>
-        <v>33020</v>
+        <v>1500</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="21"/>
-        <v>1485</v>
+        <v>5520</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="21"/>
-        <v>16</v>
+        <v>13407</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ref="A49:G49" ca="1" si="22">A9*A19</f>
-        <v>14668</v>
+        <v>10675</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="22"/>
-        <v>2295</v>
+        <v>6615</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="22"/>
-        <v>30967</v>
+        <v>738</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="22"/>
-        <v>15246</v>
+        <v>3040</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="22"/>
-        <v>28417</v>
+        <v>23000</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="22"/>
-        <v>2916</v>
+        <v>2793</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="22"/>
-        <v>12474</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ref="A50:G50" ca="1" si="23">A10*A20</f>
-        <v>15309</v>
+        <v>7245</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="23"/>
-        <v>10050</v>
+        <v>15276</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="23"/>
-        <v>8858</v>
+        <v>7995</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="23"/>
-        <v>3348</v>
+        <v>5992</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="23"/>
-        <v>498</v>
+        <v>36490</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="23"/>
-        <v>4329</v>
+        <v>60250</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="23"/>
-        <v>51832</v>
+        <v>31136</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" ref="A51:G51" ca="1" si="24">A11*A21</f>
-        <v>32220</v>
+        <v>11424</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="24"/>
-        <v>50525</v>
+        <v>46436</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="24"/>
-        <v>2754</v>
+        <v>7144</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="24"/>
-        <v>7104</v>
+        <v>22072</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="24"/>
-        <v>3281</v>
+        <v>16564</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="24"/>
-        <v>41220</v>
+        <v>2444</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="24"/>
-        <v>245</v>
+        <v>5940</v>
       </c>
     </row>
   </sheetData>
@@ -4207,67 +4209,67 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">RAND()</f>
-        <v>0.62135092999449459</v>
+        <v>0.64562529854755879</v>
       </c>
       <c r="B5">
         <f ca="1">RAND()</f>
-        <v>0.85726190907565358</v>
+        <v>0.21283633628432996</v>
       </c>
       <c r="C5">
         <f ca="1">RAND()</f>
-        <v>0.77876885038874877</v>
+        <v>0.58757151065005297</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:E9" ca="1" si="0">RAND()</f>
-        <v>0.14311241544711095</v>
+        <f t="shared" ref="D5:E7" ca="1" si="0">RAND()</f>
+        <v>0.86271200262659953</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95193307341963196</v>
+        <v>0.83785613143184989</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" ref="A6:C9" ca="1" si="1">RAND()</f>
-        <v>0.42441942157208656</v>
+        <f t="shared" ref="A6:C7" ca="1" si="1">RAND()</f>
+        <v>0.44718062540342507</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2984888947039104E-2</v>
+        <v>0.95216333969445377</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12863052959224119</v>
+        <v>0.48168271046689592</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12707568236681499</v>
+        <v>0.47608703755907533</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32977972392774813</v>
+        <v>0.24422000369694008</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2244868692509088E-2</v>
+        <v>0.61464698702488973</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69743827681737047</v>
+        <v>0.4502072274110438</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96272144149081429</v>
+        <v>0.58856376100994434</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.642643135758374E-2</v>
+        <v>0.79096462834419123</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79204700305394138</v>
+        <v>0.41340607804453111</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4286,67 +4288,67 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f ca="1">RAND()</f>
-        <v>0.30604317044498375</v>
+        <v>0.94234009975575406</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:E17" ca="1" si="2">RAND()</f>
-        <v>0.4351634677503724</v>
+        <f t="shared" ref="B13:E15" ca="1" si="2">RAND()</f>
+        <v>0.7480446343267525</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89030351119029016</v>
+        <v>0.13987782268089977</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7508897278390958</v>
+        <v>0.51248009802202465</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37531352155317688</v>
+        <v>0.67691690058635656</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" ref="A14:A17" ca="1" si="3">RAND()</f>
-        <v>0.73950263739551325</v>
+        <f t="shared" ref="A14:A15" ca="1" si="3">RAND()</f>
+        <v>0.74438661831802344</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1704037224492332E-2</v>
+        <v>0.86970224945395924</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43461248570348898</v>
+        <v>7.8469070029438814E-2</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31925557327344323</v>
+        <v>0.40146371839168382</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7749706510304033</v>
+        <v>0.6784389343782018</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3601467559425844E-2</v>
+        <v>0.11284009938315342</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63217379478257263</v>
+        <v>0.28606103219051138</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51375140141878173</v>
+        <v>7.8803416853407748E-2</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88995336032942784</v>
+        <v>0.16610067197524292</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94625990140611393</v>
+        <v>0.94847010542087995</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4365,67 +4367,67 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f ca="1">A13+A5</f>
-        <v>0.92739410043947834</v>
+        <v>1.5879653983033128</v>
       </c>
       <c r="B21">
         <f t="shared" ref="B21:E21" ca="1" si="4">B13+B5</f>
-        <v>1.2924253768260261</v>
+        <v>0.96088097061108246</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="4"/>
-        <v>1.669072361579039</v>
+        <v>0.72744933333095274</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89400214328620675</v>
+        <v>1.3751921006486243</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3272465949728089</v>
+        <v>1.5147730320182065</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" ref="A22:E25" ca="1" si="5">A14+A6</f>
-        <v>1.1639220589675998</v>
+        <f t="shared" ref="A22:E23" ca="1" si="5">A14+A6</f>
+        <v>1.1915672437214484</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="5"/>
-        <v>6.4688926171531436E-2</v>
+        <v>1.821865589148413</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56324301529573018</v>
+        <v>0.56015178049633474</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44633125564025822</v>
+        <v>0.87755075595075915</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1047503749581513</v>
+        <v>0.92265893807514188</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="5"/>
-        <v>7.5846336251934932E-2</v>
+        <v>0.72748708640804316</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3296120715999431</v>
+        <v>0.73626825960155518</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4764728429095961</v>
+        <v>0.66736717786335209</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.94637979168701158</v>
+        <v>0.95706530031943415</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7383069044600554</v>
+        <v>1.3618761834654109</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4444,67 +4446,67 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <f ca="1">A13-A5</f>
-        <v>-0.31530775954951085</v>
+        <v>0.29671480120819527</v>
       </c>
       <c r="B29">
         <f t="shared" ref="B29:E29" ca="1" si="6">B13-B5</f>
-        <v>-0.42209844132528118</v>
+        <v>0.53520829804242254</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.1115346608015414</v>
+        <v>-0.44769368796915321</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.60777731239198485</v>
+        <v>-0.35023190460457487</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.57661955186645508</v>
+        <v>-0.16093923084549333</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" ref="A30:E33" ca="1" si="7">A14-A6</f>
-        <v>0.31508321582342669</v>
+        <f t="shared" ref="A30:E31" ca="1" si="7">A14-A6</f>
+        <v>0.29720599291459837</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.2808517225467719E-3</v>
+        <v>-8.2461090240494528E-2</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30598195611124779</v>
+        <v>-0.40321364043745711</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="7"/>
-        <v>0.19217989090662824</v>
+        <v>-7.4623319167391511E-2</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="7"/>
-        <v>0.44519092710265518</v>
+        <v>0.43421893068126172</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1356598866916756E-2</v>
+        <v>-0.50180688764173631</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="7"/>
-        <v>-6.5264482034797844E-2</v>
+        <v>-0.16414619522053242</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.44897004007203256</v>
+        <v>-0.50976034415653659</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="7"/>
-        <v>0.83352692897184411</v>
+        <v>-0.62486395636894831</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="7"/>
-        <v>0.15421289835217256</v>
+        <v>0.53506402737634884</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4523,67 +4525,67 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <f ca="1">A5*A13</f>
-        <v>0.19016020857445429</v>
+        <v>0.60839860823814507</v>
       </c>
       <c r="B37">
         <f t="shared" ref="B37:E37" ca="1" si="8">B5*B13</f>
-        <v>0.37304906512366587</v>
+        <v>0.15921107934725734</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="8"/>
-        <v>0.69334064190672884</v>
+        <v>8.2188223579056516E-2</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="8"/>
-        <v>0.10746164268547675</v>
+        <v>0.44212273167085692</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="8"/>
-        <v>0.35727335406806093</v>
+        <v>0.56715897562612283</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" ref="A38:E41" ca="1" si="9">A6*A14</f>
-        <v>0.31385928161443621</v>
+        <f t="shared" ref="A38:E39" ca="1" si="9">A6*A14</f>
+        <v>0.3328752735213944</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0457541470226734E-3</v>
+        <v>0.82809859837986077</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="9"/>
-        <v>5.5904434203440143E-2</v>
+        <v>3.779719433959676E-2</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="9"/>
-        <v>4.0569619823131502E-2</v>
+        <v>0.19113167237654763</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="9"/>
-        <v>0.25556960734891365</v>
+        <v>0.16568835906199253</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4059235962543811E-3</v>
+        <v>6.9356827101444377E-2</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="9"/>
-        <v>0.44090220208225545</v>
+        <v>0.12878674417283148</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="9"/>
-        <v>0.4945994897418155</v>
+        <v>4.6380835403676095E-2</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0216892198079448E-2</v>
+        <v>0.13137975627661844</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="9"/>
-        <v>0.74948231901883056</v>
+        <v>0.39210330642452895</v>
       </c>
     </row>
   </sheetData>
@@ -4595,8 +4597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4617,155 +4619,155 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">FLOOR(RANDBETWEEN(0, 255), 1)</f>
-        <v>245</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:E11" ca="1" si="0">FLOOR(RANDBETWEEN(0, 255), 1)</f>
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:A11" ca="1" si="1">FLOOR(RANDBETWEEN(0, 255), 1)</f>
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>221</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>209</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4784,155 +4786,155 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f ca="1">FLOOR(RANDBETWEEN(0, 255), 1)</f>
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B15">
         <f t="shared" ref="B15:E21" ca="1" si="2">FLOOR(RANDBETWEEN(0, 255), 1)</f>
-        <v>237</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>253</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>211</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ref="A16:A21" ca="1" si="3">FLOOR(RANDBETWEEN(0, 255), 1)</f>
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>237</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="3"/>
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="3"/>
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>252</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>190</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4951,155 +4953,155 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <f ca="1">A15+A5</f>
-        <v>297</v>
+        <v>94</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:E25" ca="1" si="4">B15+B5</f>
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="4"/>
-        <v>184</v>
+        <v>374</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="4"/>
-        <v>333</v>
+        <v>219</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>215</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ref="A26:E31" ca="1" si="5">A16+A6</f>
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="5"/>
-        <v>319</v>
+        <v>199</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>253</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="5"/>
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="5"/>
-        <v>361</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="5"/>
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="5"/>
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="5"/>
-        <v>205</v>
+        <v>351</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="5"/>
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="5"/>
-        <v>200</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>449</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>319</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="5"/>
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="5"/>
-        <v>297</v>
+        <v>369</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="5"/>
-        <v>154</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="5"/>
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="5"/>
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="5"/>
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="5"/>
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="5"/>
-        <v>390</v>
+        <v>277</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="5"/>
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>398</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="5"/>
-        <v>328</v>
+        <v>98</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="5"/>
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="5"/>
-        <v>152</v>
+        <v>334</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="5"/>
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="5"/>
-        <v>399</v>
+        <v>293</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="5"/>
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -5118,155 +5120,155 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <f ca="1">A15-A5</f>
-        <v>-193</v>
+        <v>78</v>
       </c>
       <c r="B35">
         <f t="shared" ref="B35:E35" ca="1" si="6">B15-B5</f>
-        <v>236</v>
+        <v>-115</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="6"/>
-        <v>-78</v>
+        <v>132</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="6"/>
-        <v>-169</v>
+        <v>117</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="6"/>
-        <v>207</v>
+        <v>-148</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ref="A36:E41" ca="1" si="7">A16-A6</f>
-        <v>-5</v>
+        <v>76</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="7"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>-13</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="7"/>
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="7"/>
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="7"/>
-        <v>-145</v>
+        <v>145</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="7"/>
-        <v>-117</v>
+        <v>43</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="7"/>
-        <v>-118</v>
+        <v>157</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="7"/>
-        <v>-188</v>
+        <v>-186</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="7"/>
-        <v>-12</v>
+        <v>-53</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="7"/>
-        <v>139</v>
+        <v>-156</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="7"/>
-        <v>-69</v>
+        <v>35</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="7"/>
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>-180</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="7"/>
-        <v>-45</v>
+        <v>-112</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="7"/>
-        <v>-98</v>
+        <v>148</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="7"/>
-        <v>-34</v>
+        <v>-131</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>-124</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="7"/>
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="7"/>
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="7"/>
-        <v>-199</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ca="1" si="7"/>
-        <v>-120</v>
+        <v>-14</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="7"/>
-        <v>-35</v>
+        <v>-71</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="7"/>
-        <v>-30</v>
+        <v>122</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>-153</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="7"/>
-        <v>121</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -5285,155 +5287,1080 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <f ca="1">A5*A15</f>
-        <v>12740</v>
+        <v>688</v>
       </c>
       <c r="B45">
         <f t="shared" ref="B45:E45" ca="1" si="8">B5*B15</f>
-        <v>237</v>
+        <v>6794</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="8"/>
-        <v>6943</v>
+        <v>30613</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="8"/>
-        <v>20582</v>
+        <v>8568</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="8"/>
-        <v>844</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ref="A46:E51" ca="1" si="9">A6*A16</f>
-        <v>22046</v>
+        <v>20757</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="9"/>
-        <v>25020</v>
+        <v>9394</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="9"/>
-        <v>2035</v>
+        <v>15960</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="9"/>
-        <v>4611</v>
+        <v>2236</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="9"/>
-        <v>29388</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ca="1" si="9"/>
-        <v>2576</v>
+        <v>9024</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="9"/>
-        <v>26250</v>
+        <v>17088</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="9"/>
-        <v>7084</v>
+        <v>30338</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="9"/>
-        <v>1703</v>
+        <v>3150</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="9"/>
-        <v>1164</v>
+        <v>16951</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" ca="1" si="9"/>
-        <v>246</v>
+        <v>50388</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>24738</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="9"/>
-        <v>1650</v>
+        <v>2016</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="9"/>
-        <v>20862</v>
+        <v>33734</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="9"/>
-        <v>4633</v>
+        <v>7725</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ca="1" si="9"/>
-        <v>16116</v>
+        <v>11000</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="9"/>
-        <v>18078</v>
+        <v>1504</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="9"/>
-        <v>3400</v>
+        <v>1089</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="9"/>
-        <v>18624</v>
+        <v>13020</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>31416</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ca="1" si="9"/>
-        <v>37736</v>
+        <v>14892</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="9"/>
-        <v>36218</v>
+        <v>28556</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="9"/>
-        <v>1647</v>
+        <v>36792</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="9"/>
-        <v>23532</v>
+        <v>2112</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="9"/>
-        <v>2090</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" ca="1" si="9"/>
-        <v>2176</v>
+        <v>27840</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="9"/>
-        <v>2346</v>
+        <v>5382</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="9"/>
-        <v>400</v>
+        <v>3848</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="9"/>
-        <v>38468</v>
+        <v>15610</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="9"/>
-        <v>13110</v>
+        <v>20276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.9481166390793501</v>
+      </c>
+      <c r="B3">
+        <v>8.9966465896236283</v>
+      </c>
+      <c r="C3">
+        <v>7.8745418452098122</v>
+      </c>
+      <c r="D3">
+        <v>9.3563700714312006</v>
+      </c>
+      <c r="E3">
+        <v>0.21245704290238088</v>
+      </c>
+      <c r="F3">
+        <v>-5.5256449400602907</v>
+      </c>
+      <c r="G3">
+        <v>10.750492277845346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8.9263188403732983</v>
+      </c>
+      <c r="B4">
+        <v>4.7537713001234483</v>
+      </c>
+      <c r="C4">
+        <v>4.9867301642978852</v>
+      </c>
+      <c r="D4">
+        <v>9.2798533378299766</v>
+      </c>
+      <c r="E4">
+        <v>9.015659851226161</v>
+      </c>
+      <c r="F4">
+        <v>-0.40013135472445605</v>
+      </c>
+      <c r="G4">
+        <v>1.4215707981177079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.0789913510392601</v>
+      </c>
+      <c r="B5">
+        <v>-3.4627842779962519</v>
+      </c>
+      <c r="C5">
+        <v>3.3863851968311867</v>
+      </c>
+      <c r="D5">
+        <v>10.059336598222295</v>
+      </c>
+      <c r="E5">
+        <v>-2.8141336836225666</v>
+      </c>
+      <c r="F5">
+        <v>12.657381464627278</v>
+      </c>
+      <c r="G5">
+        <v>-6.8417314245994492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.12934759101316651</v>
+      </c>
+      <c r="B6">
+        <v>12.568115892010546</v>
+      </c>
+      <c r="C6">
+        <v>8.10685294908175</v>
+      </c>
+      <c r="D6">
+        <v>11.574838358417395</v>
+      </c>
+      <c r="E6">
+        <v>1.2136919419104988</v>
+      </c>
+      <c r="F6">
+        <v>5.7814736118668897</v>
+      </c>
+      <c r="G6">
+        <v>5.3805560371573176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-4.4089472725910692</v>
+      </c>
+      <c r="B7">
+        <v>-6.7431986414487737</v>
+      </c>
+      <c r="C7">
+        <v>6.75662901462759</v>
+      </c>
+      <c r="D7">
+        <v>-5.2005054040775471</v>
+      </c>
+      <c r="E7">
+        <v>0.86583645108320351</v>
+      </c>
+      <c r="F7">
+        <v>-2.6734402072119217</v>
+      </c>
+      <c r="G7">
+        <v>7.4977290560226493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4.0005889869456972</v>
+      </c>
+      <c r="B8">
+        <v>7.0523806818468895</v>
+      </c>
+      <c r="C8">
+        <v>3.4458040864478221</v>
+      </c>
+      <c r="D8">
+        <v>9.8540364986612055</v>
+      </c>
+      <c r="E8">
+        <v>-3.6010141032955527</v>
+      </c>
+      <c r="F8">
+        <v>12.562094906089232</v>
+      </c>
+      <c r="G8">
+        <v>10.813238808187652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6.3578188576790922</v>
+      </c>
+      <c r="B9">
+        <v>2.9006170342398221</v>
+      </c>
+      <c r="C9">
+        <v>9.8875316699126969E-2</v>
+      </c>
+      <c r="D9">
+        <v>-0.58020094062287519</v>
+      </c>
+      <c r="E9">
+        <v>12.310646276847841</v>
+      </c>
+      <c r="F9">
+        <v>5.6576385209079554</v>
+      </c>
+      <c r="G9">
+        <v>-1.5757610009102816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.8876085091959602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>A3*$A$13</f>
+        <v>8.5130066931077266</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:G17" si="0">B3*$A$13</f>
+        <v>25.978793246426005</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>22.738594038247513</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>27.01753383345115</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.61349276492352622</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-15.955899347713697</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>31.043212979551683</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" ref="A18:G18" si="1">A4*$A$13</f>
+        <v>25.775714239258154</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>13.727030457008013</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>14.399724455490743</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>26.796583462408375</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>26.033696102417046</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>-1.1554227046984464</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>4.1049399330691863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" ref="A19:G19" si="2">A5*$A$13</f>
+        <v>3.1157046066098131</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>-9.9991653466519672</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>9.7785547097849719</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>29.047425957893044</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>-8.126116370843496</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>36.549562421396956</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>-19.756241879306767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" ref="A20:G20" si="3">A6*$A$13</f>
+        <v>0.37350520445361851</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="3"/>
+        <v>36.291798394330627</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>23.409417558568826</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>33.423601736333872</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>3.5046671790033255</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>16.694632397318735</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>15.536939397101165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" ref="A21:G21" si="4">A7*$A$13</f>
+        <v>-12.731313660930292</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>-19.471717776246116</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>19.510499436118945</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>-15.017023656933901</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>2.5001967037198902</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>-7.7198486911717561</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>21.650506221816798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" ref="A22:G22" si="5">A8*$A$13</f>
+        <v>11.552134800500042</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="5"/>
+        <v>20.364514466990286</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="5"/>
+        <v>9.9501332010489438</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>28.454599643461663</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>-10.398318966410898</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>36.274412144150496</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>31.224400394490647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" ref="A23:G23" si="6">A9*$A$13</f>
+        <v>18.358891833360687</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="6"/>
+        <v>8.3758464299896609</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="6"/>
+        <v>0.28551320584984446</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="6"/>
+        <v>-1.6753931731861145</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>35.548326942727392</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="6"/>
+        <v>16.337045134928658</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>-4.5501808746876726</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f ca="1">RAND()*20-7</f>
+        <v>-6.3820392113607021</v>
+      </c>
+      <c r="B1">
+        <f t="shared" ref="B1:G16" ca="1" si="0">RAND()*20-7</f>
+        <v>-6.843125332342475</v>
+      </c>
+      <c r="C1">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.4378945920832029</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.9686302411967205</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6487519443606278</v>
+      </c>
+      <c r="F1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48025261529495555</v>
+      </c>
+      <c r="G1">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.480436735641165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f t="shared" ref="A2:A16" ca="1" si="1">RAND()*20-7</f>
+        <v>3.3557337041658535</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.9429245679788281</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.5230071208705969</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4936802638006483</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3015688848247287</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.9837828510204627</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5498477081793958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1983722633339386</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5715989137668416</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7239409263834649</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.2114578997876855</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5002802971495051</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.300461404264782</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6497255855852089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.7978691767707708</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.5855712411772274</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.9509394586583237</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6590572011875935</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.64069205773551</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.2279105631745963</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.8705451142847664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.4866240828997701</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21525961818605133</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.693049940696877</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.0742955644244159</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.458058054073582</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.8555616615532031</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.4410535748561566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5.9723570348286756</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.2422519103816505</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.20453130268769648</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.0378304028393792</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.4159949492267216</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.9588225887130162</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.7172520652616461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.6569560485087216</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44175586670992928</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.141750834070784</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82686775526741041</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.8581594557771144</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.655860446224704</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.0448085073139417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.0629428505445233</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.126607123186709</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.470865311068839</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.722729541715523</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.8981873734381516</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9539291992753665</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.7366539743026443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.304010382015826</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.914527952326484</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.20189956015120014</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.51551092400025</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.198698945903242</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.1977162889637221</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6110959174075568E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2581651276926848</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68428826867148196</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6876215396579557</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.646110069648913</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.1011375554104923</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.275020715376181</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.097211554659391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2794858072578492</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.0775888833390326</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.003801855499162</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.7079433373806721</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7401505569217868</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1822996977483058</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.5134100772734005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.8022285375518035</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5986336148751636</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.2883038478152908</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.0412463002093784</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8120144817328416</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.3328620004459619</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32576807007436326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.851343276658973</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.2353126582871745</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6089538690763501</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46037054118222898</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.833386773103236</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.8650838677070891</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3857453047474593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.8987057241277956</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6380457225908209</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7414155251083798</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.4867804144539454</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.4699353159697974</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6166848194455898</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.82931520447181306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.1336484238249014</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.975103835344228</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.825457881666864</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.3117262235514691</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.7652969515645616</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.4379747664341824</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.8950678542903354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.065570112562479</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.9332024415391746</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.161383277274371</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4009824408305089</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.021678736924013</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.1402669002896388</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.327685032428322</v>
       </c>
     </row>
   </sheetData>
